--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -647,7 +647,11 @@
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1192,7 +1196,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D32" s="9" t="inlineStr"/>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E32" s="7" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E28" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
     </row>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -837,7 +837,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E12" s="12" t="inlineStr"/>
+      <c r="E12" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1" s="1">
       <c r="A13" s="12" t="n">
@@ -1251,7 +1255,11 @@
         </is>
       </c>
       <c r="D30" s="18" t="inlineStr"/>
-      <c r="E30" s="12" t="inlineStr"/>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
       <c r="A31" s="12" t="n">

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:E37"/>
+      <selection activeCell="B6" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
+++ b/Excel/Mingguan/Excel/List Tugas Minggu Ke-4 (16 Agustus 2021 - 22 Agustus 2021).xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:E37"/>
+      <selection activeCell="E8" sqref="A1:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
